--- a/mobi_client/mobi_client/mobi_config/excel/临时CDKEY表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/临时CDKEY表.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ED3966-1997-4AC3-99FB-95B2D784B9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443AE868-8C7B-458D-9B1E-57337C163530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CDKeyTemp" sheetId="1" r:id="rId1"/>
+    <sheet name="CDKeyTemp|-c" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -580,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G744"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
